--- a/data/georgia_census/qvemo-qartli/dmanisi/average_wages.xlsx
+++ b/data/georgia_census/qvemo-qartli/dmanisi/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E3ACE2-56C1-4DB3-B181-9950CC522494}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03B87FC8-4517-444A-AF67-8BD51EB06F61}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4B660AF-EE63-4319-B446-6AC879B90D96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9235306-C7F6-4237-986C-7D6FDC216246}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C190680-DE6E-4576-B801-3D8E2A968CD5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6EC0BF2-2332-4A7A-B131-30F8DC7F4CEE}"/>
 </file>